--- a/resources/SistemasInformacionII.xlsx
+++ b/resources/SistemasInformacionII.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20371"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23901"/>
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rodrigo\Documents\NetBeansProjects\Nominas2021\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mario\Desktop\Práctica II\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79E42AEA-B94E-485D-BF70-983C32EA416A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEBAB4D9-B416-477E-AACD-B8F9BF53B22C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="4" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1064" uniqueCount="500">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1074" uniqueCount="500">
   <si>
     <t>Nombre</t>
   </si>
@@ -1944,18 +1944,18 @@
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="44" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="16.109375" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="17.44140625" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="18.109375" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="14.33203125" customWidth="1"/>
+    <col min="2" max="2" width="16.140625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="17.42578125" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="18.140625" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="14.28515625" customWidth="1"/>
     <col min="6" max="6" width="16" customWidth="1"/>
-    <col min="7" max="7" width="15.88671875" customWidth="1"/>
+    <col min="7" max="7" width="15.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -1972,7 +1972,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -1989,7 +1989,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -2006,7 +2006,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -2023,7 +2023,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>52</v>
       </c>
@@ -2040,7 +2040,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>50</v>
       </c>
@@ -2057,7 +2057,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>11</v>
       </c>
@@ -2074,7 +2074,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>12</v>
       </c>
@@ -2091,7 +2091,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>81</v>
       </c>
@@ -2108,7 +2108,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>45</v>
       </c>
@@ -2125,7 +2125,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>46</v>
       </c>
@@ -2142,7 +2142,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>47</v>
       </c>
@@ -2159,7 +2159,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>48</v>
       </c>
@@ -2176,7 +2176,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>49</v>
       </c>
@@ -2193,7 +2193,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>51</v>
       </c>
@@ -2210,7 +2210,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F16">
         <v>15</v>
       </c>
@@ -2218,7 +2218,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="17" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F17">
         <v>16</v>
       </c>
@@ -2226,7 +2226,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="18" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F18">
         <v>17</v>
       </c>
@@ -2234,7 +2234,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="19" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F19">
         <v>18</v>
       </c>
@@ -2255,12 +2255,12 @@
       <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="6" max="6" width="41.5546875" customWidth="1"/>
+    <col min="6" max="6" width="41.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>14</v>
       </c>
@@ -2274,7 +2274,7 @@
         <v>4.7</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>12000</v>
       </c>
@@ -2288,7 +2288,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>13000</v>
       </c>
@@ -2302,7 +2302,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>14000</v>
       </c>
@@ -2316,7 +2316,7 @@
         <v>23.6</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>15000</v>
       </c>
@@ -2330,7 +2330,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>16000</v>
       </c>
@@ -2344,7 +2344,7 @@
         <v>6.7</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>17000</v>
       </c>
@@ -2358,7 +2358,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>18000</v>
       </c>
@@ -2372,7 +2372,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>19000</v>
       </c>
@@ -2380,7 +2380,7 @@
         <v>11.75</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>20000</v>
       </c>
@@ -2388,7 +2388,7 @@
         <v>12.15</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>21000</v>
       </c>
@@ -2396,7 +2396,7 @@
         <v>12.8</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>22000</v>
       </c>
@@ -2404,7 +2404,7 @@
         <v>13.2</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>23000</v>
       </c>
@@ -2412,7 +2412,7 @@
         <v>13.65</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>24000</v>
       </c>
@@ -2420,7 +2420,7 @@
         <v>14.15</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>25000</v>
       </c>
@@ -2428,7 +2428,7 @@
         <v>14.8</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>26000</v>
       </c>
@@ -2436,7 +2436,7 @@
         <v>15.3</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>27000</v>
       </c>
@@ -2444,7 +2444,7 @@
         <v>15.8</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>28000</v>
       </c>
@@ -2452,7 +2452,7 @@
         <v>16.2</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>29000</v>
       </c>
@@ -2460,7 +2460,7 @@
         <v>16.7</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>30000</v>
       </c>
@@ -2468,7 +2468,7 @@
         <v>17.25</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>31000</v>
       </c>
@@ -2476,7 +2476,7 @@
         <v>17.45</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>32000</v>
       </c>
@@ -2484,7 +2484,7 @@
         <v>17.8</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>33000</v>
       </c>
@@ -2492,7 +2492,7 @@
         <v>18.149999999999999</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>34000</v>
       </c>
@@ -2500,7 +2500,7 @@
         <v>18.399999999999999</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>35000</v>
       </c>
@@ -2508,7 +2508,7 @@
         <v>18.7</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>36000</v>
       </c>
@@ -2516,7 +2516,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>37000</v>
       </c>
@@ -2524,7 +2524,7 @@
         <v>19.25</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>38000</v>
       </c>
@@ -2532,7 +2532,7 @@
         <v>19.62</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>39000</v>
       </c>
@@ -2540,7 +2540,7 @@
         <v>19.96</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>40000</v>
       </c>
@@ -2548,7 +2548,7 @@
         <v>20.18</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>41000</v>
       </c>
@@ -2556,7 +2556,7 @@
         <v>20.52</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>42000</v>
       </c>
@@ -2564,7 +2564,7 @@
         <v>20.8</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>43000</v>
       </c>
@@ -2572,7 +2572,7 @@
         <v>21.12</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>44000</v>
       </c>
@@ -2580,7 +2580,7 @@
         <v>21.45</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>45000</v>
       </c>
@@ -2588,7 +2588,7 @@
         <v>21.75</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>46000</v>
       </c>
@@ -2596,7 +2596,7 @@
         <v>22.02</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>47000</v>
       </c>
@@ -2604,7 +2604,7 @@
         <v>22.32</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>48000</v>
       </c>
@@ -2612,7 +2612,7 @@
         <v>22.62</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>49000</v>
       </c>
@@ -2620,7 +2620,7 @@
         <v>22.92</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>50000</v>
       </c>
@@ -2628,7 +2628,7 @@
         <v>23.22</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>51000</v>
       </c>
@@ -2636,7 +2636,7 @@
         <v>23.52</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>52000</v>
       </c>
@@ -2644,7 +2644,7 @@
         <v>23.82</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>53000</v>
       </c>
@@ -2652,7 +2652,7 @@
         <v>24.12</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>54000</v>
       </c>
@@ -2660,7 +2660,7 @@
         <v>24.42</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>55000</v>
       </c>
@@ -2668,7 +2668,7 @@
         <v>24.72</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>56000</v>
       </c>
@@ -2676,7 +2676,7 @@
         <v>25.02</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>57000</v>
       </c>
@@ -2684,7 +2684,7 @@
         <v>25.32</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>58000</v>
       </c>
@@ -2692,7 +2692,7 @@
         <v>25.62</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>59000</v>
       </c>
@@ -2700,7 +2700,7 @@
         <v>25.92</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>60000</v>
       </c>
@@ -2715,25 +2715,25 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M109"/>
+  <dimension ref="A1:M110"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A94" zoomScale="93" zoomScaleNormal="93" workbookViewId="0">
-      <selection activeCell="A104" sqref="A104:XFD104"/>
+      <selection activeCell="A107" sqref="A107"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.6640625" customWidth="1"/>
+    <col min="1" max="1" width="18.7109375" customWidth="1"/>
     <col min="2" max="2" width="14" customWidth="1"/>
     <col min="3" max="3" width="18" customWidth="1"/>
-    <col min="4" max="4" width="17.6640625" customWidth="1"/>
-    <col min="9" max="9" width="12.109375" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="28.88671875" style="4" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="23.33203125" customWidth="1"/>
-    <col min="12" max="12" width="28.33203125" style="3" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="17.7109375" customWidth="1"/>
+    <col min="9" max="9" width="12.140625" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="28.85546875" style="4" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="23.28515625" customWidth="1"/>
+    <col min="12" max="12" width="28.28515625" style="3" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>5</v>
       </c>
@@ -2774,7 +2774,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>122</v>
       </c>
@@ -2806,7 +2806,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>121</v>
       </c>
@@ -2841,7 +2841,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>498</v>
       </c>
@@ -2876,7 +2876,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>498</v>
       </c>
@@ -2911,7 +2911,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>122</v>
       </c>
@@ -2946,7 +2946,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>121</v>
       </c>
@@ -2981,7 +2981,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>122</v>
       </c>
@@ -3016,7 +3016,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>498</v>
       </c>
@@ -3051,7 +3051,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>494</v>
       </c>
@@ -3086,7 +3086,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>121</v>
       </c>
@@ -3121,7 +3121,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>121</v>
       </c>
@@ -3156,7 +3156,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>496</v>
       </c>
@@ -3191,7 +3191,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>496</v>
       </c>
@@ -3226,7 +3226,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>121</v>
       </c>
@@ -3258,7 +3258,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>121</v>
       </c>
@@ -3293,10 +3293,10 @@
         <v>105</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D17" s="1"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>494</v>
       </c>
@@ -3331,7 +3331,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>494</v>
       </c>
@@ -3366,7 +3366,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>494</v>
       </c>
@@ -3401,7 +3401,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>494</v>
       </c>
@@ -3436,7 +3436,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>121</v>
       </c>
@@ -3471,7 +3471,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>498</v>
       </c>
@@ -3503,7 +3503,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>122</v>
       </c>
@@ -3538,7 +3538,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>121</v>
       </c>
@@ -3570,7 +3570,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>122</v>
       </c>
@@ -3605,7 +3605,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>498</v>
       </c>
@@ -3640,7 +3640,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>498</v>
       </c>
@@ -3675,7 +3675,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>121</v>
       </c>
@@ -3710,7 +3710,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>498</v>
       </c>
@@ -3745,7 +3745,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>494</v>
       </c>
@@ -3780,7 +3780,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>121</v>
       </c>
@@ -3815,7 +3815,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>494</v>
       </c>
@@ -3850,7 +3850,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>122</v>
       </c>
@@ -3885,7 +3885,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>122</v>
       </c>
@@ -3920,7 +3920,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>496</v>
       </c>
@@ -3955,7 +3955,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>498</v>
       </c>
@@ -3990,7 +3990,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>494</v>
       </c>
@@ -4025,7 +4025,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>122</v>
       </c>
@@ -4060,10 +4060,10 @@
         <v>106</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D40" s="1"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>494</v>
       </c>
@@ -4098,7 +4098,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>121</v>
       </c>
@@ -4133,7 +4133,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>121</v>
       </c>
@@ -4168,7 +4168,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>494</v>
       </c>
@@ -4203,7 +4203,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>121</v>
       </c>
@@ -4238,7 +4238,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>121</v>
       </c>
@@ -4273,7 +4273,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>121</v>
       </c>
@@ -4308,7 +4308,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>496</v>
       </c>
@@ -4343,7 +4343,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>498</v>
       </c>
@@ -4378,7 +4378,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>122</v>
       </c>
@@ -4413,7 +4413,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>121</v>
       </c>
@@ -4445,7 +4445,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>498</v>
       </c>
@@ -4477,7 +4477,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>121</v>
       </c>
@@ -4512,7 +4512,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>122</v>
       </c>
@@ -4547,7 +4547,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>122</v>
       </c>
@@ -4582,7 +4582,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>496</v>
       </c>
@@ -4617,7 +4617,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>496</v>
       </c>
@@ -4652,7 +4652,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>496</v>
       </c>
@@ -4687,7 +4687,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>122</v>
       </c>
@@ -4722,10 +4722,10 @@
         <v>105</v>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D60" s="1"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>496</v>
       </c>
@@ -4760,7 +4760,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>122</v>
       </c>
@@ -4795,7 +4795,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>498</v>
       </c>
@@ -4830,7 +4830,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>121</v>
       </c>
@@ -4865,7 +4865,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>496</v>
       </c>
@@ -4900,7 +4900,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>498</v>
       </c>
@@ -4935,7 +4935,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>122</v>
       </c>
@@ -4970,7 +4970,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>496</v>
       </c>
@@ -5005,7 +5005,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>121</v>
       </c>
@@ -5040,7 +5040,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>121</v>
       </c>
@@ -5075,7 +5075,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>494</v>
       </c>
@@ -5110,7 +5110,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>496</v>
       </c>
@@ -5145,7 +5145,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>498</v>
       </c>
@@ -5180,7 +5180,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>494</v>
       </c>
@@ -5215,7 +5215,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>121</v>
       </c>
@@ -5250,7 +5250,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>121</v>
       </c>
@@ -5285,7 +5285,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>496</v>
       </c>
@@ -5320,7 +5320,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>121</v>
       </c>
@@ -5355,7 +5355,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>496</v>
       </c>
@@ -5390,7 +5390,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>122</v>
       </c>
@@ -5425,7 +5425,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>121</v>
       </c>
@@ -5460,7 +5460,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>121</v>
       </c>
@@ -5493,7 +5493,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>496</v>
       </c>
@@ -5528,7 +5528,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>121</v>
       </c>
@@ -5563,7 +5563,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>498</v>
       </c>
@@ -5598,7 +5598,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>496</v>
       </c>
@@ -5633,7 +5633,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>494</v>
       </c>
@@ -5665,7 +5665,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>496</v>
       </c>
@@ -5700,7 +5700,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>498</v>
       </c>
@@ -5735,7 +5735,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>498</v>
       </c>
@@ -5770,7 +5770,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>122</v>
       </c>
@@ -5805,7 +5805,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>498</v>
       </c>
@@ -5840,7 +5840,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>498</v>
       </c>
@@ -5875,7 +5875,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>494</v>
       </c>
@@ -5910,7 +5910,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>122</v>
       </c>
@@ -5945,10 +5945,10 @@
         <v>487</v>
       </c>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D96" s="1"/>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>122</v>
       </c>
@@ -5983,7 +5983,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>122</v>
       </c>
@@ -6018,7 +6018,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>122</v>
       </c>
@@ -6053,7 +6053,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>496</v>
       </c>
@@ -6088,7 +6088,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>498</v>
       </c>
@@ -6123,7 +6123,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>498</v>
       </c>
@@ -6158,7 +6158,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>498</v>
       </c>
@@ -6193,10 +6193,10 @@
         <v>481</v>
       </c>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D104" s="1"/>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>498</v>
       </c>
@@ -6231,7 +6231,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>122</v>
       </c>
@@ -6266,7 +6266,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>496</v>
       </c>
@@ -6301,7 +6301,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>122</v>
       </c>
@@ -6336,7 +6336,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>122</v>
       </c>
@@ -6371,8 +6371,43 @@
         <v>491</v>
       </c>
     </row>
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>121</v>
+      </c>
+      <c r="B110" t="s">
+        <v>493</v>
+      </c>
+      <c r="C110" t="s">
+        <v>45</v>
+      </c>
+      <c r="D110" s="1">
+        <v>40057</v>
+      </c>
+      <c r="E110" t="s">
+        <v>116</v>
+      </c>
+      <c r="F110" t="s">
+        <v>117</v>
+      </c>
+      <c r="G110" t="s">
+        <v>115</v>
+      </c>
+      <c r="H110" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="I110" t="s">
+        <v>20</v>
+      </c>
+      <c r="J110" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="K110" t="s">
+        <v>105</v>
+      </c>
+    </row>
   </sheetData>
-  <sortState ref="E2:L109">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="E2:L109">
     <sortCondition ref="E1"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/resources/SistemasInformacionII.xlsx
+++ b/resources/SistemasInformacionII.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20371"/>
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mario\Desktop\Práctica II\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rodrigo\Documents\NetBeansProjects\Nominas2021\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEBAB4D9-B416-477E-AACD-B8F9BF53B22C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79E42AEA-B94E-485D-BF70-983C32EA416A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="4" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1074" uniqueCount="500">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1491" uniqueCount="815">
   <si>
     <t>Nombre</t>
   </si>
@@ -1527,12 +1527,958 @@
   </si>
   <si>
     <t>P2418823C</t>
+  </si>
+  <si>
+    <t>ES3520960043043554600000</t>
+  </si>
+  <si>
+    <t>MA00@TecnoLeonSL.com</t>
+  </si>
+  <si>
+    <t>32145464138452163421</t>
+  </si>
+  <si>
+    <t>ES7832145464138452163421</t>
+  </si>
+  <si>
+    <t>MAA00@TecnoProyectSL.com</t>
+  </si>
+  <si>
+    <t>31645124473461205164</t>
+  </si>
+  <si>
+    <t>DK7331645124473461205164</t>
+  </si>
+  <si>
+    <t>BAA00@Asoftware.com</t>
+  </si>
+  <si>
+    <t>65614874165615445616</t>
+  </si>
+  <si>
+    <t>ES8265614874165615445616</t>
+  </si>
+  <si>
+    <t>DAC00@Asoftware.com</t>
+  </si>
+  <si>
+    <t>32569523016220165156</t>
+  </si>
+  <si>
+    <t>RO8832569523016220165156</t>
+  </si>
+  <si>
+    <t>GAB00@TecnoLeonSL.com</t>
+  </si>
+  <si>
+    <t>24561937521546497521</t>
+  </si>
+  <si>
+    <t>DE7424561937521546497521</t>
+  </si>
+  <si>
+    <t>MAG00@TecnoProyectSL.com</t>
+  </si>
+  <si>
+    <t>36520125638451012515</t>
+  </si>
+  <si>
+    <t>MC6436520125638451012515</t>
+  </si>
+  <si>
+    <t>IAR00@TecnoLeonSL.com</t>
+  </si>
+  <si>
+    <t>20125003305201112544</t>
+  </si>
+  <si>
+    <t>GR9420125003305201112544</t>
+  </si>
+  <si>
+    <t>GAM00@Asoftware.com</t>
+  </si>
+  <si>
+    <t>21651484690980008984</t>
+  </si>
+  <si>
+    <t>ES2821651484690980008984</t>
+  </si>
+  <si>
+    <t>RÁF00@PBlankSA.com</t>
+  </si>
+  <si>
+    <t>Y1337652D</t>
+  </si>
+  <si>
+    <t>FI5620960043043554600000</t>
+  </si>
+  <si>
+    <t>AAL00@TecnoProyectSL.com</t>
+  </si>
+  <si>
+    <t>21564975243245467995</t>
+  </si>
+  <si>
+    <t>ES7921564975243245467995</t>
+  </si>
+  <si>
+    <t>AAL01@TecnoProyectSL.com</t>
+  </si>
+  <si>
+    <t>32566221522587754554</t>
+  </si>
+  <si>
+    <t>LT8032566221522587754554</t>
+  </si>
+  <si>
+    <t>RAG00@APhonSA.com</t>
+  </si>
+  <si>
+    <t>23215465315456411515</t>
+  </si>
+  <si>
+    <t>EE2023215465315456411515</t>
+  </si>
+  <si>
+    <t>SAD00@APhonSA.com</t>
+  </si>
+  <si>
+    <t>00750184310702510000</t>
+  </si>
+  <si>
+    <t>BE9400750184310702510000</t>
+  </si>
+  <si>
+    <t>VB00@TecnoProyectSL.com</t>
+  </si>
+  <si>
+    <t>21584976902154655487</t>
+  </si>
+  <si>
+    <t>ES0721584976902154655487</t>
+  </si>
+  <si>
+    <t>VBB00@TecnoProyectSL.com</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>25894363475485700145</t>
+  </si>
+  <si>
+    <t>SM2125894363475485700145</t>
+  </si>
+  <si>
+    <t>ABB00@PBlankSA.com</t>
+  </si>
+  <si>
+    <t>96431245118150005156</t>
+  </si>
+  <si>
+    <t>ES9596431245118150005156</t>
+  </si>
+  <si>
+    <t>MBA00@PBlankSA.com</t>
+  </si>
+  <si>
+    <t>25030000114574745458</t>
+  </si>
+  <si>
+    <t>AT6825030000114574745458</t>
+  </si>
+  <si>
+    <t>ABC00@PBlankSA.com</t>
+  </si>
+  <si>
+    <t>15953684811254695203</t>
+  </si>
+  <si>
+    <t>IT8915953684811254695203</t>
+  </si>
+  <si>
+    <t>LBB00@PBlankSA.com</t>
+  </si>
+  <si>
+    <t>20960043023096200000</t>
+  </si>
+  <si>
+    <t>ES9020960043023096200000</t>
+  </si>
+  <si>
+    <t>ABG00@TecnoProyectSL.com</t>
+  </si>
+  <si>
+    <t>Y0806930N</t>
+  </si>
+  <si>
+    <t>DK5800750184310702510000</t>
+  </si>
+  <si>
+    <t>LB00@Asoftware.com</t>
+  </si>
+  <si>
+    <t>23455254943263234457</t>
+  </si>
+  <si>
+    <t>ES5023455254943263234457</t>
+  </si>
+  <si>
+    <t>LBB00@TecnoLeonSL.com</t>
+  </si>
+  <si>
+    <t>GR4920910936583000000000</t>
+  </si>
+  <si>
+    <t>SB00@TecnoProyectSL.com</t>
+  </si>
+  <si>
+    <t>09741995T</t>
+  </si>
+  <si>
+    <t>20960043032159000000</t>
+  </si>
+  <si>
+    <t>ES3720960043032159000000</t>
+  </si>
+  <si>
+    <t>ABG00@TecnoLeonSL.com</t>
+  </si>
+  <si>
+    <t>12669681115112121210</t>
+  </si>
+  <si>
+    <t>DE5512669681115112121210</t>
+  </si>
+  <si>
+    <t>DBG00@Asoftware.com</t>
+  </si>
+  <si>
+    <t>09779552K</t>
+  </si>
+  <si>
+    <t>12121455556115515151</t>
+  </si>
+  <si>
+    <t>FI9012121455556115515151</t>
+  </si>
+  <si>
+    <t>ECG00@Asoftware.com</t>
+  </si>
+  <si>
+    <t>56187775315550000651</t>
+  </si>
+  <si>
+    <t>ES2956187775315550000651</t>
+  </si>
+  <si>
+    <t>MCI00@TecnoProyectSL.com</t>
+  </si>
+  <si>
+    <t>25516848021156151054</t>
+  </si>
+  <si>
+    <t>ES0425516848021156151054</t>
+  </si>
+  <si>
+    <t>CCQ00@Asoftware.com</t>
+  </si>
+  <si>
+    <t>64578946740051516490</t>
+  </si>
+  <si>
+    <t>PT5764578946740051516490</t>
+  </si>
+  <si>
+    <t>MCV00@PBlankSA.com</t>
+  </si>
+  <si>
+    <t>34698752714600549403</t>
+  </si>
+  <si>
+    <t>ES4534698752714600549403</t>
+  </si>
+  <si>
+    <t>FCP00@TecnoProyectSL.com</t>
+  </si>
+  <si>
+    <t>66649444162310000255</t>
+  </si>
+  <si>
+    <t>ES2766649444162310000255</t>
+  </si>
+  <si>
+    <t>ICC00@PBlankSA.com</t>
+  </si>
+  <si>
+    <t>23185484465641685100</t>
+  </si>
+  <si>
+    <t>FR5623185484465641685100</t>
+  </si>
+  <si>
+    <t>SCF00@TecnoLeonSL.com</t>
+  </si>
+  <si>
+    <t>52198484752100515144</t>
+  </si>
+  <si>
+    <t>ES4352198484752100515144</t>
+  </si>
+  <si>
+    <t>ECJ00@TecnoLeonSL.com</t>
+  </si>
+  <si>
+    <t>36250012804785523365</t>
+  </si>
+  <si>
+    <t>CZ9536250012804785523365</t>
+  </si>
+  <si>
+    <t>GCG00@APhonSA.com</t>
+  </si>
+  <si>
+    <t>22515651915640081000</t>
+  </si>
+  <si>
+    <t>AT3122515651915640081000</t>
+  </si>
+  <si>
+    <t>ECP00@Asoftware.com</t>
+  </si>
+  <si>
+    <t>21508149175421346497</t>
+  </si>
+  <si>
+    <t>DE5021508149175421346497</t>
+  </si>
+  <si>
+    <t>MCS00@PBlankSA.com</t>
+  </si>
+  <si>
+    <t>24304263W</t>
+  </si>
+  <si>
+    <t>21346154503164978451</t>
+  </si>
+  <si>
+    <t>DE6721346154503164978451</t>
+  </si>
+  <si>
+    <t>MCL00@TecnoLeonSL.com</t>
+  </si>
+  <si>
+    <t>25187786311225455548</t>
+  </si>
+  <si>
+    <t>ES7225187786311225455548</t>
+  </si>
+  <si>
+    <t>JCC00@PBlankSA.com</t>
+  </si>
+  <si>
+    <t>23164897642213030615</t>
+  </si>
+  <si>
+    <t>ES4723164897642213030615</t>
+  </si>
+  <si>
+    <t>JCP00@TecnoProyectSL.com</t>
+  </si>
+  <si>
+    <t>96536214865214585214</t>
+  </si>
+  <si>
+    <t>ES2396536214865214585214</t>
+  </si>
+  <si>
+    <t>BCC00@TecnoProyectSL.com</t>
+  </si>
+  <si>
+    <t>85461325251978750005</t>
+  </si>
+  <si>
+    <t>ES6885461325251978750005</t>
+  </si>
+  <si>
+    <t>NCA00@PBlankSA.com</t>
+  </si>
+  <si>
+    <t>24587946032003165464</t>
+  </si>
+  <si>
+    <t>FI5024587946032003165464</t>
+  </si>
+  <si>
+    <t>MCC00@TecnoProyectSL.com</t>
+  </si>
+  <si>
+    <t>24571671N</t>
+  </si>
+  <si>
+    <t>20960043073071400000</t>
+  </si>
+  <si>
+    <t>ES5020960043073071400000</t>
+  </si>
+  <si>
+    <t>MCC01@TecnoProyectSL.com</t>
+  </si>
+  <si>
+    <t>20960043042158800000</t>
+  </si>
+  <si>
+    <t>ES8220960043042158800000</t>
+  </si>
+  <si>
+    <t>MDA00@TecnoProyectSL.com</t>
+  </si>
+  <si>
+    <t>21654587985156484454</t>
+  </si>
+  <si>
+    <t>ES7521654587985156484454</t>
+  </si>
+  <si>
+    <t>CDF00@APhonSA.com</t>
+  </si>
+  <si>
+    <t>51651681961210656510</t>
+  </si>
+  <si>
+    <t>ES3251651681961210656510</t>
+  </si>
+  <si>
+    <t>CDL00@Asoftware.com</t>
+  </si>
+  <si>
+    <t>66552211148855332200</t>
+  </si>
+  <si>
+    <t>ES5566552211148855332200</t>
+  </si>
+  <si>
+    <t>HEA00@TecnoLeonSL.com</t>
+  </si>
+  <si>
+    <t>09548827D</t>
+  </si>
+  <si>
+    <t>GB9720910936583000000000</t>
+  </si>
+  <si>
+    <t>KE00@TecnoProyectSL.com</t>
+  </si>
+  <si>
+    <t>X8996448K</t>
+  </si>
+  <si>
+    <t>01821135910205540000</t>
+  </si>
+  <si>
+    <t>DE9301821135910205540000</t>
+  </si>
+  <si>
+    <t>SE00@Asoftware.com</t>
+  </si>
+  <si>
+    <t>22631245526916432102</t>
+  </si>
+  <si>
+    <t>DE7822631245526916432102</t>
+  </si>
+  <si>
+    <t>BFP00@TecnoProyectSL.com</t>
+  </si>
+  <si>
+    <t>09548295Y</t>
+  </si>
+  <si>
+    <t>20960043043075700000</t>
+  </si>
+  <si>
+    <t>ES2120960043043075700000</t>
+  </si>
+  <si>
+    <t>AFA00@TecnoLeonSL.com</t>
+  </si>
+  <si>
+    <t>25635478321002541225</t>
+  </si>
+  <si>
+    <t>SM7325635478321002541225</t>
+  </si>
+  <si>
+    <t>IFF00@TecnoLeonSL.com</t>
+  </si>
+  <si>
+    <t>32154697195423121000</t>
+  </si>
+  <si>
+    <t>ES6832154697195423121000</t>
+  </si>
+  <si>
+    <t>DFF00@APhonSA.com</t>
+  </si>
+  <si>
+    <t>36521452736500658485</t>
+  </si>
+  <si>
+    <t>GR3836521452736500658485</t>
+  </si>
+  <si>
+    <t>EFM00@APhonSA.com</t>
+  </si>
+  <si>
+    <t>20008521528775113366</t>
+  </si>
+  <si>
+    <t>GB5520008521528775113366</t>
+  </si>
+  <si>
+    <t>CFL00@APhonSA.com</t>
+  </si>
+  <si>
+    <t>51651487910005118185</t>
+  </si>
+  <si>
+    <t>ES6851651487910005118185</t>
+  </si>
+  <si>
+    <t>RGA00@TecnoLeonSL.com</t>
+  </si>
+  <si>
+    <t>20036525257451152165</t>
+  </si>
+  <si>
+    <t>ES8220036525257451152165</t>
+  </si>
+  <si>
+    <t>EGÁ00@APhonSA.com</t>
+  </si>
+  <si>
+    <t>09611087P</t>
+  </si>
+  <si>
+    <t>ES9001826530120201560000</t>
+  </si>
+  <si>
+    <t>LGP00@TecnoLeonSL.com</t>
+  </si>
+  <si>
+    <t>21651651812511133551</t>
+  </si>
+  <si>
+    <t>ES9021651651812511133551</t>
+  </si>
+  <si>
+    <t>EGG00@Asoftware.com</t>
+  </si>
+  <si>
+    <t>20960043033000100000</t>
+  </si>
+  <si>
+    <t>ES8020960043033000100000</t>
+  </si>
+  <si>
+    <t>LGP00@TecnoProyectSL.com</t>
+  </si>
+  <si>
+    <t>36585214290025478551</t>
+  </si>
+  <si>
+    <t>GB0836585214290025478551</t>
+  </si>
+  <si>
+    <t>DGF00@APhonSA.com</t>
+  </si>
+  <si>
+    <t>12548523465214585214</t>
+  </si>
+  <si>
+    <t>ES9012548523465214585214</t>
+  </si>
+  <si>
+    <t>AGS00@Asoftware.com</t>
+  </si>
+  <si>
+    <t>31624561042546920007</t>
+  </si>
+  <si>
+    <t>ES6931624561042546920007</t>
+  </si>
+  <si>
+    <t>FGI00@TecnoLeonSL.com</t>
+  </si>
+  <si>
+    <t>36154231712500312566</t>
+  </si>
+  <si>
+    <t>ES1436154231712500312566</t>
+  </si>
+  <si>
+    <t>CGA00@APhonSA.com</t>
+  </si>
+  <si>
+    <t>44875664127231645789</t>
+  </si>
+  <si>
+    <t>ES8244875664127231645789</t>
+  </si>
+  <si>
+    <t>AGR00@TecnoProyectSL.com</t>
+  </si>
+  <si>
+    <t>ES7920960031442124800000</t>
+  </si>
+  <si>
+    <t>LGP01@TecnoProyectSL.com</t>
+  </si>
+  <si>
+    <t>09548486J</t>
+  </si>
+  <si>
+    <t>33620012937852100256</t>
+  </si>
+  <si>
+    <t>ES1633620012937852100256</t>
+  </si>
+  <si>
+    <t>NGM00@PBlankSA.com</t>
+  </si>
+  <si>
+    <t>33218885441445121022</t>
+  </si>
+  <si>
+    <t>ES1933218885441445121022</t>
+  </si>
+  <si>
+    <t>JGL00@APhonSA.com</t>
+  </si>
+  <si>
+    <t>62581542713690044508</t>
+  </si>
+  <si>
+    <t>ES8462581542713690044508</t>
+  </si>
+  <si>
+    <t>DHD00@Asoftware.com</t>
+  </si>
+  <si>
+    <t>25165151118666365100</t>
+  </si>
+  <si>
+    <t>ES3925165151118666365100</t>
+  </si>
+  <si>
+    <t>RLD00@PBlankSA.com</t>
+  </si>
+  <si>
+    <t>FLR00@TecnoProyectSL.com</t>
+  </si>
+  <si>
+    <t>36952365020014425254</t>
+  </si>
+  <si>
+    <t>PT3536952365020014425254</t>
+  </si>
+  <si>
+    <t>NMC00@TecnoProyectSL.com</t>
+  </si>
+  <si>
+    <t>65168874641561561500</t>
+  </si>
+  <si>
+    <t>ES9565168874641561561500</t>
+  </si>
+  <si>
+    <t>OMB00@APhonSA.com</t>
+  </si>
+  <si>
+    <t>20960583831234500000</t>
+  </si>
+  <si>
+    <t>ES3220960583831234500000</t>
+  </si>
+  <si>
+    <t>JMF00@TecnoProyectSL.com</t>
+  </si>
+  <si>
+    <t>21416325811510005514</t>
+  </si>
+  <si>
+    <t>ES7221416325811510005514</t>
+  </si>
+  <si>
+    <t>JMG00@APhonSA.com</t>
+  </si>
+  <si>
+    <t>32628484504115151115</t>
+  </si>
+  <si>
+    <t>LU0932628484504115151115</t>
+  </si>
+  <si>
+    <t>HMO00@TecnoLeonSL.com</t>
+  </si>
+  <si>
+    <t>09741138V</t>
+  </si>
+  <si>
+    <t>32562000145478520015</t>
+  </si>
+  <si>
+    <t>ES5032562000145478520015</t>
+  </si>
+  <si>
+    <t>CMG00@TecnoProyectSL.com</t>
+  </si>
+  <si>
+    <t>20960056133231500000</t>
+  </si>
+  <si>
+    <t>ES2220960056133231500000</t>
+  </si>
+  <si>
+    <t>PMV00@TecnoProyectSL.com</t>
+  </si>
+  <si>
+    <t>63516541828944000984</t>
+  </si>
+  <si>
+    <t>ES8163516541828944000984</t>
+  </si>
+  <si>
+    <t>CMM00@APhonSA.com</t>
+  </si>
+  <si>
+    <t>23658965274585223202</t>
+  </si>
+  <si>
+    <t>ES6223658965274585223202</t>
+  </si>
+  <si>
+    <t>MMB00@TecnoProyectSL.com</t>
+  </si>
+  <si>
+    <t>32658012367712548745</t>
+  </si>
+  <si>
+    <t>FI6132658012367712548745</t>
+  </si>
+  <si>
+    <t>BNB00@Asoftware.com</t>
+  </si>
+  <si>
+    <t>23652365142254222000</t>
+  </si>
+  <si>
+    <t>ES7223652365142254222000</t>
+  </si>
+  <si>
+    <t>POS00@APhonSA.com</t>
+  </si>
+  <si>
+    <t>20012541150023365233</t>
+  </si>
+  <si>
+    <t>FR3820012541150023365233</t>
+  </si>
+  <si>
+    <t>POD00@PBlankSA.com</t>
+  </si>
+  <si>
+    <t>32584216971684051000</t>
+  </si>
+  <si>
+    <t>ES9232584216971684051000</t>
+  </si>
+  <si>
+    <t>JOF00@APhonSA.com</t>
+  </si>
+  <si>
+    <t>55065688761051056105</t>
+  </si>
+  <si>
+    <t>ES6855065688761051056105</t>
+  </si>
+  <si>
+    <t>CPD00@Asoftware.com</t>
+  </si>
+  <si>
+    <t>95485212315484010000</t>
+  </si>
+  <si>
+    <t>ES7395485212315484010000</t>
+  </si>
+  <si>
+    <t>CPG00@Asoftware.com</t>
+  </si>
+  <si>
+    <t>21856333126985542360</t>
+  </si>
+  <si>
+    <t>LT9321856333126985542360</t>
+  </si>
+  <si>
+    <t>VPP00@TecnoLeonSL.com</t>
+  </si>
+  <si>
+    <t>36245978133245679001</t>
+  </si>
+  <si>
+    <t>ES5736245978133245679001</t>
+  </si>
+  <si>
+    <t>CPÁ00@Asoftware.com</t>
+  </si>
+  <si>
+    <t>31245164156597845124</t>
+  </si>
+  <si>
+    <t>ES7631245164156597845124</t>
+  </si>
+  <si>
+    <t>APM00@Asoftware.com</t>
+  </si>
+  <si>
+    <t>23221158252545471411</t>
+  </si>
+  <si>
+    <t>SM4423221158252545471411</t>
+  </si>
+  <si>
+    <t>RPG00@PBlankSA.com</t>
+  </si>
+  <si>
+    <t>32574512085411002255</t>
+  </si>
+  <si>
+    <t>SE6832574512085411002255</t>
+  </si>
+  <si>
+    <t>IRF00@TecnoLeonSL.com</t>
+  </si>
+  <si>
+    <t>20960043013468900000</t>
+  </si>
+  <si>
+    <t>ES4420960043013468900000</t>
+  </si>
+  <si>
+    <t>FRA00@TecnoLeonSL.com</t>
+  </si>
+  <si>
+    <t>09548443Q</t>
+  </si>
+  <si>
+    <t>31215643855060225021</t>
+  </si>
+  <si>
+    <t>ES5631215643855060225021</t>
+  </si>
+  <si>
+    <t>FRD00@TecnoLeonSL.com</t>
+  </si>
+  <si>
+    <t>09749147E</t>
+  </si>
+  <si>
+    <t>85550564726165145610</t>
+  </si>
+  <si>
+    <t>AT3285550564726165145610</t>
+  </si>
+  <si>
+    <t>TRG00@TecnoLeonSL.com</t>
+  </si>
+  <si>
+    <t>65165654918886005001</t>
+  </si>
+  <si>
+    <t>ES1665165654918886005001</t>
+  </si>
+  <si>
+    <t>CRL00@APhonSA.com</t>
+  </si>
+  <si>
+    <t>26221011628048788896</t>
+  </si>
+  <si>
+    <t>ES7426221011628048788896</t>
+  </si>
+  <si>
+    <t>CSB00@Asoftware.com</t>
+  </si>
+  <si>
+    <t>12548521518742146695</t>
+  </si>
+  <si>
+    <t>ES9712548521518742146695</t>
+  </si>
+  <si>
+    <t>SSA00@Asoftware.com</t>
+  </si>
+  <si>
+    <t>51556584221251000254</t>
+  </si>
+  <si>
+    <t>IE6851556584221251000254</t>
+  </si>
+  <si>
+    <t>ESH00@Asoftware.com</t>
+  </si>
+  <si>
+    <t>32541112811220000588</t>
+  </si>
+  <si>
+    <t>DK9032541112811220000588</t>
+  </si>
+  <si>
+    <t>DSL00@Asoftware.com</t>
+  </si>
+  <si>
+    <t>62541122421110105611</t>
+  </si>
+  <si>
+    <t>LT9362541122421110105611</t>
+  </si>
+  <si>
+    <t>HSF00@TecnoLeonSL.com</t>
+  </si>
+  <si>
+    <t>65645150865168448896</t>
+  </si>
+  <si>
+    <t>AT8365645150865168448896</t>
+  </si>
+  <si>
+    <t>SSG00@APhonSA.com</t>
+  </si>
+  <si>
+    <t>26551681807651415636</t>
+  </si>
+  <si>
+    <t>IT3526551681807651415636</t>
+  </si>
+  <si>
+    <t>GSS00@TecnoLeonSL.com</t>
+  </si>
+  <si>
+    <t>99558741836555551120</t>
+  </si>
+  <si>
+    <t>HU2399558741836555551120</t>
+  </si>
+  <si>
+    <t>SSS00@TecnoLeonSL.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
+  <numFmts count="0"/>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1944,18 +2890,18 @@
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="44" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="16.140625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="17.42578125" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="18.140625" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="14.28515625" customWidth="1"/>
-    <col min="6" max="6" width="16" customWidth="1"/>
-    <col min="7" max="7" width="15.85546875" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="44.0" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="16.109375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="17.44140625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="18.109375" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="14.33203125" collapsed="false"/>
+    <col min="6" max="6" customWidth="true" width="16.0" collapsed="false"/>
+    <col min="7" max="7" customWidth="true" width="15.88671875" collapsed="false"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -1972,7 +2918,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -1989,7 +2935,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -2006,7 +2952,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -2023,7 +2969,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>52</v>
       </c>
@@ -2040,7 +2986,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>50</v>
       </c>
@@ -2057,7 +3003,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>11</v>
       </c>
@@ -2074,7 +3020,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>12</v>
       </c>
@@ -2091,7 +3037,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>81</v>
       </c>
@@ -2108,7 +3054,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>45</v>
       </c>
@@ -2125,7 +3071,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>46</v>
       </c>
@@ -2142,7 +3088,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>47</v>
       </c>
@@ -2159,7 +3105,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>48</v>
       </c>
@@ -2176,7 +3122,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>49</v>
       </c>
@@ -2193,7 +3139,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>51</v>
       </c>
@@ -2210,7 +3156,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="F16">
         <v>15</v>
       </c>
@@ -2218,7 +3164,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="17" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F17">
         <v>16</v>
       </c>
@@ -2226,7 +3172,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="18" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F18">
         <v>17</v>
       </c>
@@ -2234,7 +3180,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="19" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F19">
         <v>18</v>
       </c>
@@ -2255,12 +3201,12 @@
       <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="6" max="6" width="41.5703125" customWidth="1"/>
+    <col min="6" max="6" customWidth="true" width="41.5546875" collapsed="false"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>14</v>
       </c>
@@ -2274,7 +3220,7 @@
         <v>4.7</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>12000</v>
       </c>
@@ -2288,7 +3234,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>13000</v>
       </c>
@@ -2302,7 +3248,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>14000</v>
       </c>
@@ -2316,7 +3262,7 @@
         <v>23.6</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>15000</v>
       </c>
@@ -2330,7 +3276,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>16000</v>
       </c>
@@ -2344,7 +3290,7 @@
         <v>6.7</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>17000</v>
       </c>
@@ -2358,7 +3304,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>18000</v>
       </c>
@@ -2372,7 +3318,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>19000</v>
       </c>
@@ -2380,7 +3326,7 @@
         <v>11.75</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>20000</v>
       </c>
@@ -2388,7 +3334,7 @@
         <v>12.15</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>21000</v>
       </c>
@@ -2396,7 +3342,7 @@
         <v>12.8</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>22000</v>
       </c>
@@ -2404,7 +3350,7 @@
         <v>13.2</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>23000</v>
       </c>
@@ -2412,7 +3358,7 @@
         <v>13.65</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>24000</v>
       </c>
@@ -2420,7 +3366,7 @@
         <v>14.15</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>25000</v>
       </c>
@@ -2428,7 +3374,7 @@
         <v>14.8</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>26000</v>
       </c>
@@ -2436,7 +3382,7 @@
         <v>15.3</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>27000</v>
       </c>
@@ -2444,7 +3390,7 @@
         <v>15.8</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>28000</v>
       </c>
@@ -2452,7 +3398,7 @@
         <v>16.2</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>29000</v>
       </c>
@@ -2460,7 +3406,7 @@
         <v>16.7</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>30000</v>
       </c>
@@ -2468,7 +3414,7 @@
         <v>17.25</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>31000</v>
       </c>
@@ -2476,7 +3422,7 @@
         <v>17.45</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>32000</v>
       </c>
@@ -2484,7 +3430,7 @@
         <v>17.8</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>33000</v>
       </c>
@@ -2492,7 +3438,7 @@
         <v>18.149999999999999</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>34000</v>
       </c>
@@ -2500,7 +3446,7 @@
         <v>18.399999999999999</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>35000</v>
       </c>
@@ -2508,7 +3454,7 @@
         <v>18.7</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>36000</v>
       </c>
@@ -2516,7 +3462,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>37000</v>
       </c>
@@ -2524,7 +3470,7 @@
         <v>19.25</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>38000</v>
       </c>
@@ -2532,7 +3478,7 @@
         <v>19.62</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>39000</v>
       </c>
@@ -2540,7 +3486,7 @@
         <v>19.96</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>40000</v>
       </c>
@@ -2548,7 +3494,7 @@
         <v>20.18</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>41000</v>
       </c>
@@ -2556,7 +3502,7 @@
         <v>20.52</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>42000</v>
       </c>
@@ -2564,7 +3510,7 @@
         <v>20.8</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>43000</v>
       </c>
@@ -2572,7 +3518,7 @@
         <v>21.12</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>44000</v>
       </c>
@@ -2580,7 +3526,7 @@
         <v>21.45</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>45000</v>
       </c>
@@ -2588,7 +3534,7 @@
         <v>21.75</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>46000</v>
       </c>
@@ -2596,7 +3542,7 @@
         <v>22.02</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>47000</v>
       </c>
@@ -2604,7 +3550,7 @@
         <v>22.32</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>48000</v>
       </c>
@@ -2612,7 +3558,7 @@
         <v>22.62</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>49000</v>
       </c>
@@ -2620,7 +3566,7 @@
         <v>22.92</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>50000</v>
       </c>
@@ -2628,7 +3574,7 @@
         <v>23.22</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>51000</v>
       </c>
@@ -2636,7 +3582,7 @@
         <v>23.52</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>52000</v>
       </c>
@@ -2644,7 +3590,7 @@
         <v>23.82</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>53000</v>
       </c>
@@ -2652,7 +3598,7 @@
         <v>24.12</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>54000</v>
       </c>
@@ -2660,7 +3606,7 @@
         <v>24.42</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>55000</v>
       </c>
@@ -2668,7 +3614,7 @@
         <v>24.72</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>56000</v>
       </c>
@@ -2676,7 +3622,7 @@
         <v>25.02</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>57000</v>
       </c>
@@ -2684,7 +3630,7 @@
         <v>25.32</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>58000</v>
       </c>
@@ -2692,7 +3638,7 @@
         <v>25.62</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>59000</v>
       </c>
@@ -2700,7 +3646,7 @@
         <v>25.92</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>60000</v>
       </c>
@@ -2715,25 +3661,25 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M110"/>
+  <dimension ref="A1:M109"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A94" zoomScale="93" zoomScaleNormal="93" workbookViewId="0">
-      <selection activeCell="A107" sqref="A107"/>
+      <selection activeCell="A104" sqref="A104:XFD104"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18.7109375" customWidth="1"/>
-    <col min="2" max="2" width="14" customWidth="1"/>
-    <col min="3" max="3" width="18" customWidth="1"/>
-    <col min="4" max="4" width="17.7109375" customWidth="1"/>
-    <col min="9" max="9" width="12.140625" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="28.85546875" style="4" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="23.28515625" customWidth="1"/>
-    <col min="12" max="12" width="28.28515625" style="3" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="18.6640625" collapsed="false"/>
+    <col min="2" max="2" customWidth="true" width="14.0" collapsed="false"/>
+    <col min="3" max="3" customWidth="true" width="18.0" collapsed="false"/>
+    <col min="4" max="4" customWidth="true" width="17.6640625" collapsed="false"/>
+    <col min="9" max="9" customWidth="true" width="12.109375" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" style="4" width="28.88671875" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="23.33203125" collapsed="false"/>
+    <col min="12" max="12" customWidth="true" style="3" width="28.33203125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>5</v>
       </c>
@@ -2774,7 +3720,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>122</v>
       </c>
@@ -2793,20 +3739,26 @@
       <c r="G2" t="s">
         <v>54</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="H2" t="s">
         <v>72</v>
       </c>
       <c r="I2" t="s">
         <v>53</v>
       </c>
-      <c r="J2" s="4" t="s">
+      <c r="J2" t="s">
         <v>98</v>
       </c>
       <c r="K2" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="L2" t="s">
+        <v>500</v>
+      </c>
+      <c r="M2" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>121</v>
       </c>
@@ -2834,14 +3786,20 @@
       <c r="I3" t="s">
         <v>53</v>
       </c>
-      <c r="J3" s="4" t="s">
-        <v>475</v>
+      <c r="J3" t="s">
+        <v>502</v>
       </c>
       <c r="K3" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="L3" t="s">
+        <v>503</v>
+      </c>
+      <c r="M3" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>498</v>
       </c>
@@ -2869,14 +3827,20 @@
       <c r="I4" t="s">
         <v>53</v>
       </c>
-      <c r="J4" s="4" t="s">
-        <v>400</v>
+      <c r="J4" t="s">
+        <v>505</v>
       </c>
       <c r="K4" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="L4" t="s">
+        <v>506</v>
+      </c>
+      <c r="M4" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>498</v>
       </c>
@@ -2904,14 +3868,20 @@
       <c r="I5" t="s">
         <v>53</v>
       </c>
-      <c r="J5" s="4" t="s">
-        <v>416</v>
+      <c r="J5" t="s">
+        <v>508</v>
       </c>
       <c r="K5" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="L5" t="s">
+        <v>509</v>
+      </c>
+      <c r="M5" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>122</v>
       </c>
@@ -2939,14 +3909,20 @@
       <c r="I6" t="s">
         <v>53</v>
       </c>
-      <c r="J6" s="4" t="s">
-        <v>434</v>
+      <c r="J6" t="s">
+        <v>511</v>
       </c>
       <c r="K6" t="s">
         <v>486</v>
       </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="L6" t="s">
+        <v>512</v>
+      </c>
+      <c r="M6" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>121</v>
       </c>
@@ -2974,14 +3950,20 @@
       <c r="I7" t="s">
         <v>20</v>
       </c>
-      <c r="J7" s="4" t="s">
-        <v>473</v>
+      <c r="J7" t="s">
+        <v>514</v>
       </c>
       <c r="K7" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="L7" t="s">
+        <v>515</v>
+      </c>
+      <c r="M7" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>122</v>
       </c>
@@ -3009,14 +3991,20 @@
       <c r="I8" t="s">
         <v>20</v>
       </c>
-      <c r="J8" s="4" t="s">
-        <v>438</v>
+      <c r="J8" t="s">
+        <v>517</v>
       </c>
       <c r="K8" t="s">
         <v>479</v>
       </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="L8" t="s">
+        <v>518</v>
+      </c>
+      <c r="M8" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>498</v>
       </c>
@@ -3044,14 +4032,20 @@
       <c r="I9" t="s">
         <v>53</v>
       </c>
-      <c r="J9" s="4" t="s">
-        <v>410</v>
+      <c r="J9" t="s">
+        <v>520</v>
       </c>
       <c r="K9" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="L9" t="s">
+        <v>521</v>
+      </c>
+      <c r="M9" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>494</v>
       </c>
@@ -3079,14 +4073,20 @@
       <c r="I10" t="s">
         <v>53</v>
       </c>
-      <c r="J10" s="4" t="s">
-        <v>449</v>
+      <c r="J10" t="s">
+        <v>523</v>
       </c>
       <c r="K10" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="L10" t="s">
+        <v>524</v>
+      </c>
+      <c r="M10" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>121</v>
       </c>
@@ -3108,20 +4108,26 @@
       <c r="G11" t="s">
         <v>56</v>
       </c>
-      <c r="H11" s="2" t="s">
-        <v>73</v>
+      <c r="H11" t="s">
+        <v>526</v>
       </c>
       <c r="I11" t="s">
         <v>53</v>
       </c>
-      <c r="J11" s="4" t="s">
+      <c r="J11" t="s">
         <v>98</v>
       </c>
       <c r="K11" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="L11" t="s">
+        <v>527</v>
+      </c>
+      <c r="M11" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>121</v>
       </c>
@@ -3144,19 +4150,25 @@
         <v>56</v>
       </c>
       <c r="H12" t="s">
-        <v>73</v>
+        <v>526</v>
       </c>
       <c r="I12" t="s">
         <v>53</v>
       </c>
-      <c r="J12" s="4" t="s">
-        <v>476</v>
+      <c r="J12" t="s">
+        <v>529</v>
       </c>
       <c r="K12" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="L12" t="s">
+        <v>530</v>
+      </c>
+      <c r="M12" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>496</v>
       </c>
@@ -3184,14 +4196,20 @@
       <c r="I13" t="s">
         <v>20</v>
       </c>
-      <c r="J13" s="4" t="s">
-        <v>451</v>
+      <c r="J13" t="s">
+        <v>532</v>
       </c>
       <c r="K13" t="s">
         <v>483</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="L13" t="s">
+        <v>533</v>
+      </c>
+      <c r="M13" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>496</v>
       </c>
@@ -3219,14 +4237,20 @@
       <c r="I14" t="s">
         <v>53</v>
       </c>
-      <c r="J14" s="4" t="s">
-        <v>445</v>
+      <c r="J14" t="s">
+        <v>535</v>
       </c>
       <c r="K14" t="s">
         <v>489</v>
       </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="L14" t="s">
+        <v>536</v>
+      </c>
+      <c r="M14" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>121</v>
       </c>
@@ -3245,20 +4269,26 @@
       <c r="G15" t="s">
         <v>59</v>
       </c>
-      <c r="H15" s="2" t="s">
-        <v>79</v>
+      <c r="H15" t="s">
+        <v>393</v>
       </c>
       <c r="I15" t="s">
         <v>20</v>
       </c>
-      <c r="J15" s="4" t="s">
-        <v>99</v>
+      <c r="J15" t="s">
+        <v>538</v>
       </c>
       <c r="K15" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="L15" t="s">
+        <v>539</v>
+      </c>
+      <c r="M15" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>121</v>
       </c>
@@ -3286,17 +4316,33 @@
       <c r="I16" t="s">
         <v>20</v>
       </c>
-      <c r="J16" s="4" t="s">
-        <v>477</v>
+      <c r="J16" t="s">
+        <v>541</v>
       </c>
       <c r="K16" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L16" t="s">
+        <v>542</v>
+      </c>
+      <c r="M16" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="D17" s="1"/>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="H17" t="s">
+        <v>544</v>
+      </c>
+      <c r="J17" t="s">
+        <v>544</v>
+      </c>
+      <c r="L17" t="s">
+        <v>544</v>
+      </c>
+      <c r="M17"/>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>494</v>
       </c>
@@ -3324,14 +4370,20 @@
       <c r="I18" t="s">
         <v>20</v>
       </c>
-      <c r="J18" s="4" t="s">
-        <v>465</v>
+      <c r="J18" t="s">
+        <v>545</v>
       </c>
       <c r="K18" t="s">
         <v>488</v>
       </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L18" t="s">
+        <v>546</v>
+      </c>
+      <c r="M18" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>494</v>
       </c>
@@ -3359,14 +4411,20 @@
       <c r="I19" t="s">
         <v>53</v>
       </c>
-      <c r="J19" s="4" t="s">
-        <v>461</v>
+      <c r="J19" t="s">
+        <v>548</v>
       </c>
       <c r="K19" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L19" t="s">
+        <v>549</v>
+      </c>
+      <c r="M19" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>494</v>
       </c>
@@ -3394,14 +4452,20 @@
       <c r="I20" t="s">
         <v>20</v>
       </c>
-      <c r="J20" s="4" t="s">
-        <v>464</v>
+      <c r="J20" t="s">
+        <v>551</v>
       </c>
       <c r="K20" t="s">
         <v>480</v>
       </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L20" t="s">
+        <v>552</v>
+      </c>
+      <c r="M20" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>494</v>
       </c>
@@ -3429,14 +4493,20 @@
       <c r="I21" t="s">
         <v>53</v>
       </c>
-      <c r="J21" s="4" t="s">
-        <v>460</v>
+      <c r="J21" t="s">
+        <v>554</v>
       </c>
       <c r="K21" t="s">
         <v>482</v>
       </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L21" t="s">
+        <v>555</v>
+      </c>
+      <c r="M21" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>121</v>
       </c>
@@ -3458,20 +4528,26 @@
       <c r="G22" t="s">
         <v>113</v>
       </c>
-      <c r="H22" s="2" t="s">
+      <c r="H22" t="s">
         <v>43</v>
       </c>
       <c r="I22" t="s">
         <v>53</v>
       </c>
-      <c r="J22" s="4" t="s">
-        <v>92</v>
+      <c r="J22" t="s">
+        <v>557</v>
       </c>
       <c r="K22" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L22" t="s">
+        <v>558</v>
+      </c>
+      <c r="M22" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>498</v>
       </c>
@@ -3490,20 +4566,26 @@
       <c r="G23" t="s">
         <v>104</v>
       </c>
-      <c r="H23" s="2" t="s">
-        <v>74</v>
+      <c r="H23" t="s">
+        <v>560</v>
       </c>
       <c r="I23" t="s">
         <v>20</v>
       </c>
-      <c r="J23" s="4" t="s">
-        <v>99</v>
+      <c r="J23" t="s">
+        <v>538</v>
       </c>
       <c r="K23" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L23" t="s">
+        <v>561</v>
+      </c>
+      <c r="M23" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>122</v>
       </c>
@@ -3526,19 +4608,25 @@
         <v>394</v>
       </c>
       <c r="H24" t="s">
-        <v>74</v>
+        <v>560</v>
       </c>
       <c r="I24" t="s">
         <v>20</v>
       </c>
-      <c r="J24" s="4" t="s">
-        <v>478</v>
+      <c r="J24" t="s">
+        <v>563</v>
       </c>
       <c r="K24" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L24" t="s">
+        <v>564</v>
+      </c>
+      <c r="M24" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>121</v>
       </c>
@@ -3557,20 +4645,26 @@
       <c r="G25" t="s">
         <v>62</v>
       </c>
-      <c r="H25" s="2" t="s">
+      <c r="H25" t="s">
         <v>64</v>
       </c>
       <c r="I25" t="s">
         <v>20</v>
       </c>
-      <c r="J25" s="4" t="s">
+      <c r="J25" t="s">
         <v>100</v>
       </c>
       <c r="K25" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L25" t="s">
+        <v>566</v>
+      </c>
+      <c r="M25" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>122</v>
       </c>
@@ -3592,20 +4686,26 @@
       <c r="G26" t="s">
         <v>28</v>
       </c>
-      <c r="H26" s="2" t="s">
-        <v>78</v>
+      <c r="H26" t="s">
+        <v>568</v>
       </c>
       <c r="I26" t="s">
         <v>53</v>
       </c>
-      <c r="J26" s="4" t="s">
-        <v>97</v>
+      <c r="J26" t="s">
+        <v>569</v>
       </c>
       <c r="K26" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L26" t="s">
+        <v>570</v>
+      </c>
+      <c r="M26" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>498</v>
       </c>
@@ -3633,14 +4733,20 @@
       <c r="I27" t="s">
         <v>53</v>
       </c>
-      <c r="J27" s="4" t="s">
-        <v>420</v>
+      <c r="J27" t="s">
+        <v>572</v>
       </c>
       <c r="K27" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L27" t="s">
+        <v>573</v>
+      </c>
+      <c r="M27" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>498</v>
       </c>
@@ -3663,19 +4769,25 @@
         <v>220</v>
       </c>
       <c r="H28" t="s">
-        <v>223</v>
+        <v>575</v>
       </c>
       <c r="I28" t="s">
         <v>20</v>
       </c>
-      <c r="J28" s="4" t="s">
-        <v>419</v>
+      <c r="J28" t="s">
+        <v>576</v>
       </c>
       <c r="K28" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L28" t="s">
+        <v>577</v>
+      </c>
+      <c r="M28" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>121</v>
       </c>
@@ -3703,14 +4815,20 @@
       <c r="I29" t="s">
         <v>53</v>
       </c>
-      <c r="J29" s="4" t="s">
-        <v>456</v>
+      <c r="J29" t="s">
+        <v>579</v>
       </c>
       <c r="K29" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L29" t="s">
+        <v>580</v>
+      </c>
+      <c r="M29" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>498</v>
       </c>
@@ -3738,14 +4856,20 @@
       <c r="I30" t="s">
         <v>20</v>
       </c>
-      <c r="J30" s="4" t="s">
-        <v>415</v>
+      <c r="J30" t="s">
+        <v>582</v>
       </c>
       <c r="K30" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L30" t="s">
+        <v>583</v>
+      </c>
+      <c r="M30" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>494</v>
       </c>
@@ -3773,14 +4897,20 @@
       <c r="I31" t="s">
         <v>53</v>
       </c>
-      <c r="J31" s="4" t="s">
-        <v>462</v>
+      <c r="J31" t="s">
+        <v>585</v>
       </c>
       <c r="K31" t="s">
         <v>492</v>
       </c>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L31" t="s">
+        <v>586</v>
+      </c>
+      <c r="M31" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>121</v>
       </c>
@@ -3808,14 +4938,20 @@
       <c r="I32" t="s">
         <v>20</v>
       </c>
-      <c r="J32" s="4" t="s">
-        <v>463</v>
+      <c r="J32" t="s">
+        <v>588</v>
       </c>
       <c r="K32" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L32" t="s">
+        <v>589</v>
+      </c>
+      <c r="M32" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>494</v>
       </c>
@@ -3843,14 +4979,20 @@
       <c r="I33" t="s">
         <v>20</v>
       </c>
-      <c r="J33" s="4" t="s">
-        <v>466</v>
+      <c r="J33" t="s">
+        <v>591</v>
       </c>
       <c r="K33" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L33" t="s">
+        <v>592</v>
+      </c>
+      <c r="M33" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>122</v>
       </c>
@@ -3878,14 +5020,20 @@
       <c r="I34" t="s">
         <v>20</v>
       </c>
-      <c r="J34" s="4" t="s">
-        <v>446</v>
+      <c r="J34" t="s">
+        <v>594</v>
       </c>
       <c r="K34" t="s">
         <v>490</v>
       </c>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L34" t="s">
+        <v>595</v>
+      </c>
+      <c r="M34" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>122</v>
       </c>
@@ -3913,14 +5061,20 @@
       <c r="I35" t="s">
         <v>53</v>
       </c>
-      <c r="J35" s="4" t="s">
-        <v>427</v>
+      <c r="J35" t="s">
+        <v>597</v>
       </c>
       <c r="K35" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L35" t="s">
+        <v>598</v>
+      </c>
+      <c r="M35" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>496</v>
       </c>
@@ -3948,14 +5102,20 @@
       <c r="I36" t="s">
         <v>53</v>
       </c>
-      <c r="J36" s="4" t="s">
-        <v>433</v>
+      <c r="J36" t="s">
+        <v>600</v>
       </c>
       <c r="K36" t="s">
         <v>485</v>
       </c>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L36" t="s">
+        <v>601</v>
+      </c>
+      <c r="M36" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>498</v>
       </c>
@@ -3983,14 +5143,20 @@
       <c r="I37" t="s">
         <v>53</v>
       </c>
-      <c r="J37" s="4" t="s">
-        <v>424</v>
+      <c r="J37" t="s">
+        <v>603</v>
       </c>
       <c r="K37" t="s">
         <v>480</v>
       </c>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L37" t="s">
+        <v>604</v>
+      </c>
+      <c r="M37" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>494</v>
       </c>
@@ -4018,14 +5184,20 @@
       <c r="I38" t="s">
         <v>53</v>
       </c>
-      <c r="J38" s="4" t="s">
-        <v>471</v>
+      <c r="J38" t="s">
+        <v>606</v>
       </c>
       <c r="K38" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L38" t="s">
+        <v>607</v>
+      </c>
+      <c r="M38" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>122</v>
       </c>
@@ -4048,22 +5220,38 @@
         <v>384</v>
       </c>
       <c r="H39" t="s">
-        <v>387</v>
+        <v>609</v>
       </c>
       <c r="I39" t="s">
         <v>20</v>
       </c>
-      <c r="J39" s="4" t="s">
-        <v>472</v>
+      <c r="J39" t="s">
+        <v>610</v>
       </c>
       <c r="K39" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L39" t="s">
+        <v>611</v>
+      </c>
+      <c r="M39" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="D40" s="1"/>
-    </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="H40" t="s">
+        <v>544</v>
+      </c>
+      <c r="J40" t="s">
+        <v>544</v>
+      </c>
+      <c r="L40" t="s">
+        <v>544</v>
+      </c>
+      <c r="M40"/>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>494</v>
       </c>
@@ -4091,14 +5279,20 @@
       <c r="I41" t="s">
         <v>53</v>
       </c>
-      <c r="J41" s="4" t="s">
-        <v>467</v>
+      <c r="J41" t="s">
+        <v>613</v>
       </c>
       <c r="K41" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L41" t="s">
+        <v>614</v>
+      </c>
+      <c r="M41" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>121</v>
       </c>
@@ -4126,14 +5320,20 @@
       <c r="I42" t="s">
         <v>53</v>
       </c>
-      <c r="J42" s="4" t="s">
-        <v>468</v>
+      <c r="J42" t="s">
+        <v>616</v>
       </c>
       <c r="K42" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L42" t="s">
+        <v>617</v>
+      </c>
+      <c r="M42" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>121</v>
       </c>
@@ -4161,14 +5361,20 @@
       <c r="I43" t="s">
         <v>53</v>
       </c>
-      <c r="J43" s="4" t="s">
-        <v>399</v>
+      <c r="J43" t="s">
+        <v>619</v>
       </c>
       <c r="K43" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L43" t="s">
+        <v>620</v>
+      </c>
+      <c r="M43" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>494</v>
       </c>
@@ -4196,14 +5402,20 @@
       <c r="I44" t="s">
         <v>53</v>
       </c>
-      <c r="J44" s="4" t="s">
-        <v>469</v>
+      <c r="J44" t="s">
+        <v>622</v>
       </c>
       <c r="K44" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L44" t="s">
+        <v>623</v>
+      </c>
+      <c r="M44" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>121</v>
       </c>
@@ -4231,14 +5443,20 @@
       <c r="I45" t="s">
         <v>53</v>
       </c>
-      <c r="J45" s="4" t="s">
-        <v>470</v>
+      <c r="J45" t="s">
+        <v>625</v>
       </c>
       <c r="K45" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L45" t="s">
+        <v>626</v>
+      </c>
+      <c r="M45" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>121</v>
       </c>
@@ -4260,20 +5478,26 @@
       <c r="G46" t="s">
         <v>26</v>
       </c>
-      <c r="H46" s="2" t="s">
-        <v>71</v>
+      <c r="H46" t="s">
+        <v>628</v>
       </c>
       <c r="I46" t="s">
         <v>53</v>
       </c>
-      <c r="J46" s="4" t="s">
-        <v>95</v>
+      <c r="J46" t="s">
+        <v>629</v>
       </c>
       <c r="K46" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L46" t="s">
+        <v>630</v>
+      </c>
+      <c r="M46" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>121</v>
       </c>
@@ -4295,20 +5519,26 @@
       <c r="G47" t="s">
         <v>23</v>
       </c>
-      <c r="H47" s="2" t="s">
+      <c r="H47" t="s">
         <v>42</v>
       </c>
       <c r="I47" t="s">
         <v>53</v>
       </c>
-      <c r="J47" s="4" t="s">
-        <v>90</v>
+      <c r="J47" t="s">
+        <v>632</v>
       </c>
       <c r="K47" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L47" t="s">
+        <v>633</v>
+      </c>
+      <c r="M47" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>496</v>
       </c>
@@ -4336,14 +5566,20 @@
       <c r="I48" t="s">
         <v>53</v>
       </c>
-      <c r="J48" s="4" t="s">
-        <v>414</v>
+      <c r="J48" t="s">
+        <v>635</v>
       </c>
       <c r="K48" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L48" t="s">
+        <v>636</v>
+      </c>
+      <c r="M48" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>498</v>
       </c>
@@ -4371,14 +5607,20 @@
       <c r="I49" t="s">
         <v>53</v>
       </c>
-      <c r="J49" s="4" t="s">
-        <v>402</v>
+      <c r="J49" t="s">
+        <v>638</v>
       </c>
       <c r="K49" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L49" t="s">
+        <v>639</v>
+      </c>
+      <c r="M49" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>122</v>
       </c>
@@ -4406,14 +5648,20 @@
       <c r="I50" t="s">
         <v>20</v>
       </c>
-      <c r="J50" s="4" t="s">
-        <v>436</v>
+      <c r="J50" t="s">
+        <v>641</v>
       </c>
       <c r="K50" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L50" t="s">
+        <v>642</v>
+      </c>
+      <c r="M50" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>121</v>
       </c>
@@ -4432,20 +5680,26 @@
       <c r="G51" t="s">
         <v>65</v>
       </c>
-      <c r="H51" s="2" t="s">
-        <v>70</v>
+      <c r="H51" t="s">
+        <v>644</v>
       </c>
       <c r="I51" t="s">
         <v>20</v>
       </c>
-      <c r="J51" s="4" t="s">
+      <c r="J51" t="s">
         <v>100</v>
       </c>
       <c r="K51" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L51" t="s">
+        <v>645</v>
+      </c>
+      <c r="M51" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>498</v>
       </c>
@@ -4464,20 +5718,26 @@
       <c r="G52" t="s">
         <v>67</v>
       </c>
-      <c r="H52" s="2" t="s">
-        <v>80</v>
+      <c r="H52" t="s">
+        <v>647</v>
       </c>
       <c r="I52" t="s">
         <v>20</v>
       </c>
-      <c r="J52" s="4" t="s">
-        <v>101</v>
+      <c r="J52" t="s">
+        <v>648</v>
       </c>
       <c r="K52" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L52" t="s">
+        <v>649</v>
+      </c>
+      <c r="M52" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>121</v>
       </c>
@@ -4505,14 +5765,20 @@
       <c r="I53" t="s">
         <v>53</v>
       </c>
-      <c r="J53" s="4" t="s">
-        <v>401</v>
+      <c r="J53" t="s">
+        <v>651</v>
       </c>
       <c r="K53" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L53" t="s">
+        <v>652</v>
+      </c>
+      <c r="M53" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>122</v>
       </c>
@@ -4534,20 +5800,26 @@
       <c r="G54" t="s">
         <v>21</v>
       </c>
-      <c r="H54" s="2" t="s">
-        <v>75</v>
+      <c r="H54" t="s">
+        <v>654</v>
       </c>
       <c r="I54" t="s">
         <v>20</v>
       </c>
-      <c r="J54" s="4" t="s">
-        <v>88</v>
+      <c r="J54" t="s">
+        <v>655</v>
       </c>
       <c r="K54" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L54" t="s">
+        <v>656</v>
+      </c>
+      <c r="M54" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>122</v>
       </c>
@@ -4575,14 +5847,20 @@
       <c r="I55" t="s">
         <v>20</v>
       </c>
-      <c r="J55" s="4" t="s">
-        <v>437</v>
+      <c r="J55" t="s">
+        <v>658</v>
       </c>
       <c r="K55" t="s">
         <v>488</v>
       </c>
-    </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L55" t="s">
+        <v>659</v>
+      </c>
+      <c r="M55" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>496</v>
       </c>
@@ -4610,14 +5888,20 @@
       <c r="I56" t="s">
         <v>20</v>
       </c>
-      <c r="J56" s="4" t="s">
-        <v>417</v>
+      <c r="J56" t="s">
+        <v>661</v>
       </c>
       <c r="K56" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L56" t="s">
+        <v>662</v>
+      </c>
+      <c r="M56" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>496</v>
       </c>
@@ -4645,14 +5929,20 @@
       <c r="I57" t="s">
         <v>20</v>
       </c>
-      <c r="J57" s="4" t="s">
-        <v>423</v>
+      <c r="J57" t="s">
+        <v>664</v>
       </c>
       <c r="K57" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L57" t="s">
+        <v>665</v>
+      </c>
+      <c r="M57" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>496</v>
       </c>
@@ -4680,14 +5970,20 @@
       <c r="I58" t="s">
         <v>53</v>
       </c>
-      <c r="J58" s="4" t="s">
-        <v>411</v>
+      <c r="J58" t="s">
+        <v>667</v>
       </c>
       <c r="K58" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L58" t="s">
+        <v>668</v>
+      </c>
+      <c r="M58" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>122</v>
       </c>
@@ -4715,17 +6011,33 @@
       <c r="I59" t="s">
         <v>20</v>
       </c>
-      <c r="J59" s="4" t="s">
-        <v>448</v>
+      <c r="J59" t="s">
+        <v>670</v>
       </c>
       <c r="K59" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L59" t="s">
+        <v>671</v>
+      </c>
+      <c r="M59" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
       <c r="D60" s="1"/>
-    </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="H60" t="s">
+        <v>544</v>
+      </c>
+      <c r="J60" t="s">
+        <v>544</v>
+      </c>
+      <c r="L60" t="s">
+        <v>544</v>
+      </c>
+      <c r="M60"/>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>496</v>
       </c>
@@ -4753,14 +6065,20 @@
       <c r="I61" t="s">
         <v>53</v>
       </c>
-      <c r="J61" s="4" t="s">
-        <v>426</v>
+      <c r="J61" t="s">
+        <v>673</v>
       </c>
       <c r="K61" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L61" t="s">
+        <v>674</v>
+      </c>
+      <c r="M61" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>122</v>
       </c>
@@ -4782,20 +6100,26 @@
       <c r="G62" t="s">
         <v>24</v>
       </c>
-      <c r="H62" s="2" t="s">
-        <v>76</v>
+      <c r="H62" t="s">
+        <v>676</v>
       </c>
       <c r="I62" t="s">
         <v>20</v>
       </c>
-      <c r="J62" s="4" t="s">
+      <c r="J62" t="s">
         <v>94</v>
       </c>
       <c r="K62" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L62" t="s">
+        <v>677</v>
+      </c>
+      <c r="M62" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>498</v>
       </c>
@@ -4823,14 +6147,20 @@
       <c r="I63" t="s">
         <v>53</v>
       </c>
-      <c r="J63" s="4" t="s">
-        <v>418</v>
+      <c r="J63" t="s">
+        <v>679</v>
       </c>
       <c r="K63" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L63" t="s">
+        <v>680</v>
+      </c>
+      <c r="M63" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>121</v>
       </c>
@@ -4852,20 +6182,26 @@
       <c r="G64" t="s">
         <v>118</v>
       </c>
-      <c r="H64" s="2" t="s">
-        <v>112</v>
+      <c r="H64" t="s">
+        <v>69</v>
       </c>
       <c r="I64" t="s">
         <v>20</v>
       </c>
-      <c r="J64" s="4" t="s">
-        <v>91</v>
+      <c r="J64" t="s">
+        <v>682</v>
       </c>
       <c r="K64" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L64" t="s">
+        <v>683</v>
+      </c>
+      <c r="M64" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>496</v>
       </c>
@@ -4893,14 +6229,20 @@
       <c r="I65" t="s">
         <v>53</v>
       </c>
-      <c r="J65" s="4" t="s">
-        <v>422</v>
+      <c r="J65" t="s">
+        <v>685</v>
       </c>
       <c r="K65" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L65" t="s">
+        <v>686</v>
+      </c>
+      <c r="M65" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>498</v>
       </c>
@@ -4928,14 +6270,20 @@
       <c r="I66" t="s">
         <v>20</v>
       </c>
-      <c r="J66" s="4" t="s">
-        <v>397</v>
+      <c r="J66" t="s">
+        <v>688</v>
       </c>
       <c r="K66" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L66" t="s">
+        <v>689</v>
+      </c>
+      <c r="M66" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>122</v>
       </c>
@@ -4963,14 +6311,20 @@
       <c r="I67" t="s">
         <v>53</v>
       </c>
-      <c r="J67" s="4" t="s">
-        <v>428</v>
+      <c r="J67" t="s">
+        <v>691</v>
       </c>
       <c r="K67" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L67" t="s">
+        <v>692</v>
+      </c>
+      <c r="M67" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>496</v>
       </c>
@@ -4998,14 +6352,20 @@
       <c r="I68" t="s">
         <v>20</v>
       </c>
-      <c r="J68" s="4" t="s">
-        <v>406</v>
+      <c r="J68" t="s">
+        <v>694</v>
       </c>
       <c r="K68" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L68" t="s">
+        <v>695</v>
+      </c>
+      <c r="M68" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>121</v>
       </c>
@@ -5033,14 +6393,20 @@
       <c r="I69" t="s">
         <v>20</v>
       </c>
-      <c r="J69" s="4" t="s">
-        <v>474</v>
+      <c r="J69" t="s">
+        <v>697</v>
       </c>
       <c r="K69" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L69" t="s">
+        <v>698</v>
+      </c>
+      <c r="M69" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>121</v>
       </c>
@@ -5062,20 +6428,26 @@
       <c r="G70" t="s">
         <v>115</v>
       </c>
-      <c r="H70" s="2" t="s">
-        <v>70</v>
+      <c r="H70" t="s">
+        <v>644</v>
       </c>
       <c r="I70" t="s">
         <v>20</v>
       </c>
-      <c r="J70" s="4" t="s">
+      <c r="J70" t="s">
         <v>89</v>
       </c>
       <c r="K70" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L70" t="s">
+        <v>700</v>
+      </c>
+      <c r="M70" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>494</v>
       </c>
@@ -5098,19 +6470,25 @@
         <v>337</v>
       </c>
       <c r="H71" t="s">
-        <v>339</v>
+        <v>702</v>
       </c>
       <c r="I71" t="s">
         <v>53</v>
       </c>
-      <c r="J71" s="4" t="s">
-        <v>458</v>
+      <c r="J71" t="s">
+        <v>703</v>
       </c>
       <c r="K71" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L71" t="s">
+        <v>704</v>
+      </c>
+      <c r="M71" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>496</v>
       </c>
@@ -5138,14 +6516,20 @@
       <c r="I72" t="s">
         <v>20</v>
       </c>
-      <c r="J72" s="4" t="s">
-        <v>439</v>
+      <c r="J72" t="s">
+        <v>706</v>
       </c>
       <c r="K72" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L72" t="s">
+        <v>707</v>
+      </c>
+      <c r="M72" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>498</v>
       </c>
@@ -5173,14 +6557,20 @@
       <c r="I73" t="s">
         <v>20</v>
       </c>
-      <c r="J73" s="4" t="s">
-        <v>409</v>
+      <c r="J73" t="s">
+        <v>709</v>
       </c>
       <c r="K73" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L73" t="s">
+        <v>710</v>
+      </c>
+      <c r="M73" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>494</v>
       </c>
@@ -5208,14 +6598,20 @@
       <c r="I74" t="s">
         <v>20</v>
       </c>
-      <c r="J74" s="4" t="s">
-        <v>450</v>
+      <c r="J74" t="s">
+        <v>712</v>
       </c>
       <c r="K74" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L74" t="s">
+        <v>713</v>
+      </c>
+      <c r="M74" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>121</v>
       </c>
@@ -5237,20 +6633,26 @@
       <c r="G75" t="s">
         <v>25</v>
       </c>
-      <c r="H75" s="2" t="s">
-        <v>77</v>
+      <c r="H75" t="s">
+        <v>609</v>
       </c>
       <c r="I75" t="s">
         <v>20</v>
       </c>
-      <c r="J75" s="4" t="s">
-        <v>91</v>
+      <c r="J75" t="s">
+        <v>682</v>
       </c>
       <c r="K75" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L75" t="s">
+        <v>683</v>
+      </c>
+      <c r="M75" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>121</v>
       </c>
@@ -5278,14 +6680,20 @@
       <c r="I76" t="s">
         <v>53</v>
       </c>
-      <c r="J76" s="4" t="s">
-        <v>457</v>
+      <c r="J76" t="s">
+        <v>716</v>
       </c>
       <c r="K76" t="s">
         <v>492</v>
       </c>
-    </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L76" t="s">
+        <v>717</v>
+      </c>
+      <c r="M76" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>496</v>
       </c>
@@ -5313,14 +6721,20 @@
       <c r="I77" t="s">
         <v>53</v>
       </c>
-      <c r="J77" s="4" t="s">
-        <v>455</v>
+      <c r="J77" t="s">
+        <v>719</v>
       </c>
       <c r="K77" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L77" t="s">
+        <v>720</v>
+      </c>
+      <c r="M77" t="s">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>121</v>
       </c>
@@ -5348,14 +6762,20 @@
       <c r="I78" t="s">
         <v>20</v>
       </c>
-      <c r="J78" s="4" t="s">
-        <v>87</v>
+      <c r="J78" t="s">
+        <v>722</v>
       </c>
       <c r="K78" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L78" t="s">
+        <v>723</v>
+      </c>
+      <c r="M78" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>496</v>
       </c>
@@ -5383,14 +6803,20 @@
       <c r="I79" t="s">
         <v>20</v>
       </c>
-      <c r="J79" s="4" t="s">
-        <v>440</v>
+      <c r="J79" t="s">
+        <v>725</v>
       </c>
       <c r="K79" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L79" t="s">
+        <v>726</v>
+      </c>
+      <c r="M79" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>122</v>
       </c>
@@ -5418,14 +6844,20 @@
       <c r="I80" t="s">
         <v>53</v>
       </c>
-      <c r="J80" s="4" t="s">
-        <v>432</v>
+      <c r="J80" t="s">
+        <v>728</v>
       </c>
       <c r="K80" t="s">
         <v>484</v>
       </c>
-    </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L80" t="s">
+        <v>729</v>
+      </c>
+      <c r="M80" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>121</v>
       </c>
@@ -5448,19 +6880,25 @@
         <v>170</v>
       </c>
       <c r="H81" t="s">
-        <v>173</v>
+        <v>731</v>
       </c>
       <c r="I81" t="s">
         <v>20</v>
       </c>
-      <c r="J81" s="4" t="s">
-        <v>405</v>
+      <c r="J81" t="s">
+        <v>732</v>
       </c>
       <c r="K81" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L81" t="s">
+        <v>733</v>
+      </c>
+      <c r="M81" t="s">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>121</v>
       </c>
@@ -5482,18 +6920,26 @@
       <c r="G82" t="s">
         <v>103</v>
       </c>
-      <c r="H82" s="2"/>
+      <c r="H82" t="s">
+        <v>544</v>
+      </c>
       <c r="I82" t="s">
         <v>20</v>
       </c>
-      <c r="J82" s="4" t="s">
-        <v>93</v>
+      <c r="J82" t="s">
+        <v>735</v>
       </c>
       <c r="K82" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L82" t="s">
+        <v>736</v>
+      </c>
+      <c r="M82" t="s">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>496</v>
       </c>
@@ -5521,14 +6967,20 @@
       <c r="I83" t="s">
         <v>53</v>
       </c>
-      <c r="J83" s="4" t="s">
-        <v>412</v>
+      <c r="J83" t="s">
+        <v>738</v>
       </c>
       <c r="K83" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L83" t="s">
+        <v>739</v>
+      </c>
+      <c r="M83" t="s">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>121</v>
       </c>
@@ -5556,14 +7008,20 @@
       <c r="I84" t="s">
         <v>53</v>
       </c>
-      <c r="J84" s="4" t="s">
-        <v>459</v>
+      <c r="J84" t="s">
+        <v>741</v>
       </c>
       <c r="K84" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L84" t="s">
+        <v>742</v>
+      </c>
+      <c r="M84" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>498</v>
       </c>
@@ -5591,14 +7049,20 @@
       <c r="I85" t="s">
         <v>20</v>
       </c>
-      <c r="J85" s="4" t="s">
-        <v>398</v>
+      <c r="J85" t="s">
+        <v>744</v>
       </c>
       <c r="K85" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L85" t="s">
+        <v>745</v>
+      </c>
+      <c r="M85" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>496</v>
       </c>
@@ -5626,14 +7090,20 @@
       <c r="I86" t="s">
         <v>53</v>
       </c>
-      <c r="J86" s="4" t="s">
-        <v>454</v>
+      <c r="J86" t="s">
+        <v>747</v>
       </c>
       <c r="K86" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L86" t="s">
+        <v>748</v>
+      </c>
+      <c r="M86" t="s">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>494</v>
       </c>
@@ -5655,17 +7125,26 @@
       <c r="G87" t="s">
         <v>321</v>
       </c>
+      <c r="H87" t="s">
+        <v>544</v>
+      </c>
       <c r="I87" t="s">
         <v>20</v>
       </c>
-      <c r="J87" s="4" t="s">
-        <v>453</v>
+      <c r="J87" t="s">
+        <v>750</v>
       </c>
       <c r="K87" t="s">
         <v>490</v>
       </c>
-    </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L87" t="s">
+        <v>751</v>
+      </c>
+      <c r="M87" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>496</v>
       </c>
@@ -5693,14 +7172,20 @@
       <c r="I88" t="s">
         <v>20</v>
       </c>
-      <c r="J88" s="4" t="s">
-        <v>441</v>
+      <c r="J88" t="s">
+        <v>753</v>
       </c>
       <c r="K88" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L88" t="s">
+        <v>754</v>
+      </c>
+      <c r="M88" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>498</v>
       </c>
@@ -5728,14 +7213,20 @@
       <c r="I89" t="s">
         <v>53</v>
       </c>
-      <c r="J89" s="4" t="s">
-        <v>403</v>
+      <c r="J89" t="s">
+        <v>756</v>
       </c>
       <c r="K89" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L89" t="s">
+        <v>757</v>
+      </c>
+      <c r="M89" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>498</v>
       </c>
@@ -5763,14 +7254,20 @@
       <c r="I90" t="s">
         <v>53</v>
       </c>
-      <c r="J90" s="4" t="s">
-        <v>404</v>
+      <c r="J90" t="s">
+        <v>759</v>
       </c>
       <c r="K90" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L90" t="s">
+        <v>760</v>
+      </c>
+      <c r="M90" t="s">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>122</v>
       </c>
@@ -5798,14 +7295,20 @@
       <c r="I91" t="s">
         <v>20</v>
       </c>
-      <c r="J91" s="4" t="s">
-        <v>442</v>
+      <c r="J91" t="s">
+        <v>762</v>
       </c>
       <c r="K91" t="s">
         <v>483</v>
       </c>
-    </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L91" t="s">
+        <v>763</v>
+      </c>
+      <c r="M91" t="s">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>498</v>
       </c>
@@ -5833,14 +7336,20 @@
       <c r="I92" t="s">
         <v>20</v>
       </c>
-      <c r="J92" s="4" t="s">
-        <v>407</v>
+      <c r="J92" t="s">
+        <v>765</v>
       </c>
       <c r="K92" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L92" t="s">
+        <v>766</v>
+      </c>
+      <c r="M92" t="s">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>498</v>
       </c>
@@ -5868,14 +7377,20 @@
       <c r="I93" t="s">
         <v>20</v>
       </c>
-      <c r="J93" s="4" t="s">
-        <v>396</v>
+      <c r="J93" t="s">
+        <v>768</v>
       </c>
       <c r="K93" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L93" t="s">
+        <v>769</v>
+      </c>
+      <c r="M93" t="s">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>494</v>
       </c>
@@ -5903,14 +7418,20 @@
       <c r="I94" t="s">
         <v>20</v>
       </c>
-      <c r="J94" s="4" t="s">
-        <v>452</v>
+      <c r="J94" t="s">
+        <v>771</v>
       </c>
       <c r="K94" t="s">
         <v>488</v>
       </c>
-    </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L94" t="s">
+        <v>772</v>
+      </c>
+      <c r="M94" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>122</v>
       </c>
@@ -5938,17 +7459,33 @@
       <c r="I95" t="s">
         <v>53</v>
       </c>
-      <c r="J95" s="4" t="s">
-        <v>435</v>
+      <c r="J95" t="s">
+        <v>774</v>
       </c>
       <c r="K95" t="s">
         <v>487</v>
       </c>
-    </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L95" t="s">
+        <v>775</v>
+      </c>
+      <c r="M95" t="s">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
       <c r="D96" s="1"/>
-    </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="H96" t="s">
+        <v>544</v>
+      </c>
+      <c r="J96" t="s">
+        <v>544</v>
+      </c>
+      <c r="L96" t="s">
+        <v>544</v>
+      </c>
+      <c r="M96"/>
+    </row>
+    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>122</v>
       </c>
@@ -5970,20 +7507,26 @@
       <c r="G97" t="s">
         <v>27</v>
       </c>
-      <c r="H97" s="2" t="s">
+      <c r="H97" t="s">
         <v>44</v>
       </c>
       <c r="I97" t="s">
         <v>20</v>
       </c>
-      <c r="J97" s="4" t="s">
-        <v>96</v>
+      <c r="J97" t="s">
+        <v>777</v>
       </c>
       <c r="K97" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L97" t="s">
+        <v>778</v>
+      </c>
+      <c r="M97" t="s">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>122</v>
       </c>
@@ -6006,19 +7549,25 @@
         <v>27</v>
       </c>
       <c r="H98" t="s">
-        <v>253</v>
+        <v>780</v>
       </c>
       <c r="I98" t="s">
         <v>20</v>
       </c>
-      <c r="J98" s="4" t="s">
-        <v>429</v>
+      <c r="J98" t="s">
+        <v>781</v>
       </c>
       <c r="K98" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L98" t="s">
+        <v>782</v>
+      </c>
+      <c r="M98" t="s">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>122</v>
       </c>
@@ -6041,19 +7590,25 @@
         <v>291</v>
       </c>
       <c r="H99" t="s">
-        <v>292</v>
+        <v>784</v>
       </c>
       <c r="I99" t="s">
         <v>20</v>
       </c>
-      <c r="J99" s="4" t="s">
-        <v>443</v>
+      <c r="J99" t="s">
+        <v>785</v>
       </c>
       <c r="K99" t="s">
         <v>480</v>
       </c>
-    </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L99" t="s">
+        <v>786</v>
+      </c>
+      <c r="M99" t="s">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>496</v>
       </c>
@@ -6081,14 +7636,20 @@
       <c r="I100" t="s">
         <v>20</v>
       </c>
-      <c r="J100" s="4" t="s">
-        <v>413</v>
+      <c r="J100" t="s">
+        <v>788</v>
       </c>
       <c r="K100" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L100" t="s">
+        <v>789</v>
+      </c>
+      <c r="M100" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>498</v>
       </c>
@@ -6116,14 +7677,20 @@
       <c r="I101" t="s">
         <v>20</v>
       </c>
-      <c r="J101" s="4" t="s">
-        <v>408</v>
+      <c r="J101" t="s">
+        <v>791</v>
       </c>
       <c r="K101" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L101" t="s">
+        <v>792</v>
+      </c>
+      <c r="M101" t="s">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>498</v>
       </c>
@@ -6151,14 +7718,20 @@
       <c r="I102" t="s">
         <v>20</v>
       </c>
-      <c r="J102" s="4" t="s">
-        <v>395</v>
+      <c r="J102" t="s">
+        <v>794</v>
       </c>
       <c r="K102" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L102" t="s">
+        <v>795</v>
+      </c>
+      <c r="M102" t="s">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>498</v>
       </c>
@@ -6186,17 +7759,33 @@
       <c r="I103" t="s">
         <v>20</v>
       </c>
-      <c r="J103" s="4" t="s">
-        <v>425</v>
+      <c r="J103" t="s">
+        <v>797</v>
       </c>
       <c r="K103" t="s">
         <v>481</v>
       </c>
-    </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L103" t="s">
+        <v>798</v>
+      </c>
+      <c r="M103" t="s">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
       <c r="D104" s="1"/>
-    </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="H104" t="s">
+        <v>544</v>
+      </c>
+      <c r="J104" t="s">
+        <v>544</v>
+      </c>
+      <c r="L104" t="s">
+        <v>544</v>
+      </c>
+      <c r="M104"/>
+    </row>
+    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>498</v>
       </c>
@@ -6224,14 +7813,20 @@
       <c r="I105" t="s">
         <v>20</v>
       </c>
-      <c r="J105" s="4" t="s">
-        <v>421</v>
+      <c r="J105" t="s">
+        <v>800</v>
       </c>
       <c r="K105" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L105" t="s">
+        <v>801</v>
+      </c>
+      <c r="M105" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>122</v>
       </c>
@@ -6259,14 +7854,20 @@
       <c r="I106" t="s">
         <v>20</v>
       </c>
-      <c r="J106" s="4" t="s">
-        <v>431</v>
+      <c r="J106" t="s">
+        <v>803</v>
       </c>
       <c r="K106" t="s">
         <v>483</v>
       </c>
-    </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L106" t="s">
+        <v>804</v>
+      </c>
+      <c r="M106" t="s">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>496</v>
       </c>
@@ -6294,14 +7895,20 @@
       <c r="I107" t="s">
         <v>20</v>
       </c>
-      <c r="J107" s="4" t="s">
-        <v>444</v>
+      <c r="J107" t="s">
+        <v>806</v>
       </c>
       <c r="K107" t="s">
         <v>480</v>
       </c>
-    </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L107" t="s">
+        <v>807</v>
+      </c>
+      <c r="M107" t="s">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>122</v>
       </c>
@@ -6329,14 +7936,20 @@
       <c r="I108" t="s">
         <v>20</v>
       </c>
-      <c r="J108" s="4" t="s">
-        <v>430</v>
+      <c r="J108" t="s">
+        <v>809</v>
       </c>
       <c r="K108" t="s">
         <v>482</v>
       </c>
-    </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L108" t="s">
+        <v>810</v>
+      </c>
+      <c r="M108" t="s">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>122</v>
       </c>
@@ -6364,50 +7977,21 @@
       <c r="I109" t="s">
         <v>20</v>
       </c>
-      <c r="J109" s="4" t="s">
-        <v>447</v>
+      <c r="J109" t="s">
+        <v>812</v>
       </c>
       <c r="K109" t="s">
         <v>491</v>
       </c>
-    </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A110" t="s">
-        <v>121</v>
-      </c>
-      <c r="B110" t="s">
-        <v>493</v>
-      </c>
-      <c r="C110" t="s">
-        <v>45</v>
-      </c>
-      <c r="D110" s="1">
-        <v>40057</v>
-      </c>
-      <c r="E110" t="s">
-        <v>116</v>
-      </c>
-      <c r="F110" t="s">
-        <v>117</v>
-      </c>
-      <c r="G110" t="s">
-        <v>115</v>
-      </c>
-      <c r="H110" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="I110" t="s">
-        <v>20</v>
-      </c>
-      <c r="J110" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="K110" t="s">
-        <v>105</v>
+      <c r="L109" t="s">
+        <v>813</v>
+      </c>
+      <c r="M109" t="s">
+        <v>814</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="E2:L109">
+  <sortState ref="E2:L109">
     <sortCondition ref="E1"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
